--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1254294995216586</v>
+        <v>0.1080459066698215</v>
       </c>
       <c r="H2" t="n">
-        <v>89.13388801333937</v>
+        <v>62.92134219080646</v>
       </c>
       <c r="I2" t="n">
-        <v>12.80138801095995</v>
+        <v>-25.23369985902986</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1067882719986197</v>
+        <v>0.07945207144514034</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.702631139812521</v>
+        <v>-32.81740712050722</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3689244584953007</v>
+        <v>-0.3128084454615781</v>
       </c>
       <c r="H4" t="n">
-        <v>34.15661657419998</v>
+        <v>-13.75044866941243</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3824474697236977</v>
+        <v>-0.3855258351895</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.152074429984048</v>
+        <v>3.38058300331389</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2194085397666959</v>
+        <v>0.2192504910394083</v>
       </c>
       <c r="H6" t="n">
-        <v>11.2906165828048</v>
+        <v>11.21044951032592</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2965081863417544</v>
+        <v>0.2632554193539478</v>
       </c>
       <c r="H7" t="n">
-        <v>42.97662599127032</v>
+        <v>26.94209929759376</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07532647720340466</v>
+        <v>0.121587203999592</v>
       </c>
       <c r="H8" t="n">
-        <v>-26.07515077926494</v>
+        <v>19.32478534167178</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1068341567071205</v>
+        <v>0.1422309851853292</v>
       </c>
       <c r="H9" t="n">
-        <v>-15.53280757375173</v>
+        <v>12.45328614854265</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01087921653553274</v>
+        <v>0.043524765108687</v>
       </c>
       <c r="H10" t="n">
-        <v>-82.29230913514655</v>
+        <v>-29.15637969032777</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01039860762837691</v>
+        <v>0.01746674402821073</v>
       </c>
       <c r="H11" t="n">
-        <v>-79.1736908456143</v>
+        <v>-65.01764235633378</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1286846213102146</v>
+        <v>0.09706595934071878</v>
       </c>
       <c r="H12" t="n">
-        <v>39.0174982655228</v>
+        <v>4.859980135159919</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07201865134445053</v>
+        <v>0.09434475753397736</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.496906863382576</v>
+        <v>23.79947752065303</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2331843858863377</v>
+        <v>0.2572524436251866</v>
       </c>
       <c r="H14" t="n">
-        <v>3.196446389097628</v>
+        <v>13.84783722170463</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2242479814544909</v>
+        <v>0.2393226478642493</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.976438247630771</v>
+        <v>-2.857543353036252</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1147173268412432</v>
+        <v>0.152131098523302</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8549563447553069</v>
+        <v>33.74767110360447</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1542037015024689</v>
+        <v>0.1335680796103169</v>
       </c>
       <c r="H17" t="n">
-        <v>3.209536437915116</v>
+        <v>-10.60201898420296</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02544025612039762</v>
+        <v>-0.03317052758298038</v>
       </c>
       <c r="H18" t="n">
-        <v>184.1867805799548</v>
+        <v>-270.5397225300595</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.007797083539283827</v>
+        <v>0.02587712002003402</v>
       </c>
       <c r="H19" t="n">
-        <v>-132.1903698769195</v>
+        <v>6.834056682538278</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1303460728171322</v>
+        <v>0.1190659008633763</v>
       </c>
       <c r="H20" t="n">
-        <v>53.23806266483994</v>
+        <v>39.97681390328445</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1228050151452262</v>
+        <v>0.08353812266868749</v>
       </c>
       <c r="H21" t="n">
-        <v>87.62043353026738</v>
+        <v>27.6288168921176</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2020495122315165</v>
+        <v>0.2196208578153532</v>
       </c>
       <c r="H22" t="n">
-        <v>5.474912082449944</v>
+        <v>14.64759510532156</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2205448714704308</v>
+        <v>0.2216983275189489</v>
       </c>
       <c r="H23" t="n">
-        <v>2.242644580733987</v>
+        <v>2.777376565304057</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01604493267953405</v>
+        <v>-0.02485831938478298</v>
       </c>
       <c r="H24" t="n">
-        <v>321.6172200268035</v>
+        <v>-553.209067490769</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.008445156321634183</v>
+        <v>-0.01897896224802626</v>
       </c>
       <c r="H25" t="n">
-        <v>-63.6881812866674</v>
+        <v>18.39575133120133</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1948378004579082</v>
+        <v>0.2186390601354116</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.895153498042522</v>
+        <v>6.722793034212709</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2082764884092509</v>
+        <v>0.2361584905972731</v>
       </c>
       <c r="H27" t="n">
-        <v>7.979876419403485</v>
+        <v>22.43515734709196</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.003834375198610357</v>
+        <v>0.00460185823063228</v>
       </c>
       <c r="H28" t="n">
-        <v>-94.26966863349058</v>
+        <v>-93.12269373827091</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09302795086218479</v>
+        <v>0.1061640246092083</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.311867866772137</v>
+        <v>12.62345554563519</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1080459066698215</v>
+        <v>0.1106325200512855</v>
       </c>
       <c r="H2" t="n">
-        <v>62.92134219080646</v>
+        <v>66.82167064216205</v>
       </c>
       <c r="I2" t="n">
-        <v>-25.23369985902986</v>
+        <v>-5.557205918961192</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07945207144514034</v>
+        <v>0.1045008284432751</v>
       </c>
       <c r="H3" t="n">
-        <v>-32.81740712050722</v>
+        <v>-11.63683356296326</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3128084454615781</v>
+        <v>-0.3731008860193334</v>
       </c>
       <c r="H4" t="n">
-        <v>-13.75044866941243</v>
+        <v>-35.67534316738064</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3855258351895</v>
+        <v>-0.4515751981242114</v>
       </c>
       <c r="H5" t="n">
-        <v>3.38058300331389</v>
+        <v>-13.17252539373433</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2192504910394083</v>
+        <v>0.2163282386318862</v>
       </c>
       <c r="H6" t="n">
-        <v>11.21044951032592</v>
+        <v>9.728195115900169</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2632554193539478</v>
+        <v>0.2924639865425127</v>
       </c>
       <c r="H7" t="n">
-        <v>26.94209929759376</v>
+        <v>41.02650768504693</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121587203999592</v>
+        <v>0.1222985317607402</v>
       </c>
       <c r="H8" t="n">
-        <v>19.32478534167178</v>
+        <v>20.02287716066669</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1422309851853292</v>
+        <v>0.09203189303018679</v>
       </c>
       <c r="H9" t="n">
-        <v>12.45328614854265</v>
+        <v>-27.2360464336911</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.043524765108687</v>
+        <v>0.003077960097416877</v>
       </c>
       <c r="H10" t="n">
-        <v>-29.15637969032777</v>
+        <v>-94.9901203159807</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01746674402821073</v>
+        <v>0.05477080791912636</v>
       </c>
       <c r="H11" t="n">
-        <v>-65.01764235633378</v>
+        <v>9.694857150528582</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09706595934071878</v>
+        <v>0.109050188782545</v>
       </c>
       <c r="H12" t="n">
-        <v>4.859980135159919</v>
+        <v>17.80649681042373</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09434475753397736</v>
+        <v>0.08028478430678125</v>
       </c>
       <c r="H13" t="n">
-        <v>23.79947752065303</v>
+        <v>5.34993792801184</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2572524436251866</v>
+        <v>0.2345321142118025</v>
       </c>
       <c r="H14" t="n">
-        <v>13.84783722170463</v>
+        <v>3.792887584580119</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2393226478642493</v>
+        <v>0.219458702597369</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.857543353036252</v>
+        <v>-10.92043442977264</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.152131098523302</v>
+        <v>0.134505459660485</v>
       </c>
       <c r="H16" t="n">
-        <v>33.74767110360447</v>
+        <v>18.25190348937222</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1335680796103169</v>
+        <v>0.139241079714748</v>
       </c>
       <c r="H17" t="n">
-        <v>-10.60201898420296</v>
+        <v>-6.805043261274515</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.03317052758298038</v>
+        <v>-0.01545694238832697</v>
       </c>
       <c r="H18" t="n">
-        <v>-270.5397225300595</v>
+        <v>-72.66566319772664</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02587712002003402</v>
+        <v>-0.01459884274666243</v>
       </c>
       <c r="H19" t="n">
-        <v>6.834056682538278</v>
+        <v>-160.2715291457827</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1190659008633763</v>
+        <v>0.1206641947765292</v>
       </c>
       <c r="H20" t="n">
-        <v>39.97681390328445</v>
+        <v>41.85580770438012</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08353812266868749</v>
+        <v>0.07297582058655232</v>
       </c>
       <c r="H21" t="n">
-        <v>27.6288168921176</v>
+        <v>11.49182368068946</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2196208578153532</v>
+        <v>0.2134265662448721</v>
       </c>
       <c r="H22" t="n">
-        <v>14.64759510532156</v>
+        <v>11.41401957428574</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2216983275189489</v>
+        <v>0.198639697492388</v>
       </c>
       <c r="H23" t="n">
-        <v>2.777376565304057</v>
+        <v>-7.912399617681892</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02485831938478298</v>
+        <v>-0.006690312833867494</v>
       </c>
       <c r="H24" t="n">
-        <v>-553.209067490769</v>
+        <v>-75.80323672674794</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01897896224802626</v>
+        <v>0.004826247483038267</v>
       </c>
       <c r="H25" t="n">
-        <v>18.39575133120133</v>
+        <v>120.7515192135427</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2186390601354116</v>
+        <v>0.1941684885979973</v>
       </c>
       <c r="H26" t="n">
-        <v>6.722793034212709</v>
+        <v>-5.221860130683438</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2361584905972731</v>
+        <v>0.1862750396862572</v>
       </c>
       <c r="H27" t="n">
-        <v>22.43515734709196</v>
+        <v>-3.426661746769963</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00460185823063228</v>
+        <v>0.0600403918811617</v>
       </c>
       <c r="H28" t="n">
-        <v>-93.12269373827091</v>
+        <v>-10.27186359362297</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1061640246092083</v>
+        <v>0.09652625932949457</v>
       </c>
       <c r="H29" t="n">
-        <v>12.62345554563519</v>
+        <v>2.399291253309005</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>